--- a/dataset/day_13.xlsx
+++ b/dataset/day_13.xlsx
@@ -843,7 +843,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -8107,7 +8107,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
